--- a/assets/locales/translations.xlsx
+++ b/assets/locales/translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="12580" activeTab="1"/>
+    <workbookView windowWidth="29100" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本记录" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="259">
   <si>
     <t>版本号</t>
   </si>
@@ -1130,11 +1130,118 @@
     <t>您没有设置密保问题</t>
   </si>
   <si>
+    <t>text_0121</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击复制密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击前往登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录成功后请立即使用临时密码修改登录密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时密码可长按输入框粘贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>text_0122</t>
   </si>
   <si>
-    <r>
-      <t>1.</t>
+    <t>您的临时密码</t>
+  </si>
+  <si>
+    <t>text_0123</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>text_0124</t>
+  </si>
+  <si>
+    <t>密码已重置成功</t>
+  </si>
+  <si>
+    <t>text_0125</t>
+  </si>
+  <si>
+    <r>
+      <t>复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@word</t>
     </r>
     <r>
       <rPr>
@@ -1143,89 +1250,8 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>点击复制密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\n2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击前往登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>\n3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录成功后请立即使用临时密码修改登录密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临时密码可长按输入框粘贴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>text_0123</t>
-  </si>
-  <si>
-    <t>您的临时密码</t>
-  </si>
-  <si>
-    <t>text_0124</t>
-  </si>
-  <si>
-    <t>复制</t>
-  </si>
-  <si>
-    <t>text_0125</t>
-  </si>
-  <si>
-    <t>密码已重置成功</t>
+      <t>成功</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3212,12 +3238,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124:C127"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="A1:E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="4"/>
@@ -4600,6 +4626,14 @@
         <v>256</v>
       </c>
     </row>
+    <row r="128" customHeight="1" spans="2:3">
+      <c r="B128" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/assets/locales/translations.xlsx
+++ b/assets/locales/translations.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="261">
   <si>
     <t>版本号</t>
   </si>
@@ -122,13 +122,13 @@
     <t>text_0005</t>
   </si>
   <si>
-    <t>聊天</t>
+    <t>消息</t>
   </si>
   <si>
     <t>text_0006</t>
   </si>
   <si>
-    <t>搜索</t>
+    <t>联系人</t>
   </si>
   <si>
     <t>text_0007</t>
@@ -957,6 +957,9 @@
     <t>text_0095</t>
   </si>
   <si>
+    <t>聊天</t>
+  </si>
+  <si>
     <t>text_0096</t>
   </si>
   <si>
@@ -1252,6 +1255,9 @@
       </rPr>
       <t>成功</t>
     </r>
+  </si>
+  <si>
+    <t>text_0126</t>
   </si>
 </sst>
 </file>
@@ -3238,12 +3244,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="A1:E128"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="4"/>
@@ -4335,7 +4341,7 @@
         <v>199</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4343,10 +4349,10 @@
     <row r="99" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A99" s="2"/>
       <c r="B99" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -4354,10 +4360,10 @@
     <row r="100" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A100" s="2"/>
       <c r="B100" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4365,10 +4371,10 @@
     <row r="101" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A101" s="2"/>
       <c r="B101" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4376,10 +4382,10 @@
     <row r="102" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A102" s="2"/>
       <c r="B102" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4387,10 +4393,10 @@
     <row r="103" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A103" s="2"/>
       <c r="B103" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4398,10 +4404,10 @@
     <row r="104" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A104" s="2"/>
       <c r="B104" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4409,10 +4415,10 @@
     <row r="105" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A105" s="2"/>
       <c r="B105" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4420,10 +4426,10 @@
     <row r="106" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A106" s="2"/>
       <c r="B106" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4431,10 +4437,10 @@
     <row r="107" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4442,10 +4448,10 @@
     <row r="108" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A108" s="2"/>
       <c r="B108" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4453,10 +4459,10 @@
     <row r="109" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A109" s="2"/>
       <c r="B109" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4464,10 +4470,10 @@
     <row r="110" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A110" s="2"/>
       <c r="B110" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4475,10 +4481,10 @@
     <row r="111" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A111" s="2"/>
       <c r="B111" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4486,10 +4492,10 @@
     <row r="112" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A112" s="2"/>
       <c r="B112" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4497,10 +4503,10 @@
     <row r="113" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A113" s="2"/>
       <c r="B113" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4508,10 +4514,10 @@
     <row r="114" s="1" customFormat="1" ht="16" spans="1:5">
       <c r="A114" s="2"/>
       <c r="B114" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4519,10 +4525,10 @@
     <row r="115" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A115" s="2"/>
       <c r="B115" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4530,57 +4536,57 @@
     <row r="116" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" ht="31" spans="2:3">
       <c r="B117" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" ht="16" spans="2:3">
       <c r="B118" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="2:3">
       <c r="B119" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" customHeight="1" spans="2:3">
       <c r="B120" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="2:3">
       <c r="B121" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="2:3">
       <c r="B122" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>160</v>
@@ -4588,50 +4594,58 @@
     </row>
     <row r="123" customHeight="1" spans="2:3">
       <c r="B123" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" ht="46" spans="2:3">
       <c r="B124" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" customHeight="1" spans="2:3">
       <c r="B125" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" customHeight="1" spans="2:3">
       <c r="B126" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="2:3">
       <c r="B127" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="2:3">
       <c r="B128" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="2:3">
+      <c r="B129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/assets/locales/translations.xlsx
+++ b/assets/locales/translations.xlsx
@@ -3247,9 +3247,9 @@
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128:B129"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="4"/>

--- a/assets/locales/translations.xlsx
+++ b/assets/locales/translations.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="346">
   <si>
     <t>版本号</t>
   </si>
@@ -1258,6 +1258,305 @@
   </si>
   <si>
     <t>text_0126</t>
+  </si>
+  <si>
+    <t>text_0127</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>text_0128</t>
+  </si>
+  <si>
+    <t>text_0130</t>
+  </si>
+  <si>
+    <t>text_0131</t>
+  </si>
+  <si>
+    <t>新朋友</t>
+  </si>
+  <si>
+    <t>text_0132</t>
+  </si>
+  <si>
+    <t>我的群聊</t>
+  </si>
+  <si>
+    <t>text_0133</t>
+  </si>
+  <si>
+    <t>搜索好友</t>
+  </si>
+  <si>
+    <t>text_0134</t>
+  </si>
+  <si>
+    <t>搜索群聊</t>
+  </si>
+  <si>
+    <t>text_0135</t>
+  </si>
+  <si>
+    <t>text_0136</t>
+  </si>
+  <si>
+    <t>text_0137</t>
+  </si>
+  <si>
+    <t>忽略</t>
+  </si>
+  <si>
+    <t>text_0138</t>
+  </si>
+  <si>
+    <t>申请加你为好友</t>
+  </si>
+  <si>
+    <t>text_0139</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>text_0140</t>
+  </si>
+  <si>
+    <t>默认加为好友</t>
+  </si>
+  <si>
+    <t>text_0141</t>
+  </si>
+  <si>
+    <t>群主</t>
+  </si>
+  <si>
+    <t>text_0142</t>
+  </si>
+  <si>
+    <r>
+      <t>@number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0143</t>
+  </si>
+  <si>
+    <t>群管</t>
+  </si>
+  <si>
+    <t>text_0144</t>
+  </si>
+  <si>
+    <t>成员</t>
+  </si>
+  <si>
+    <t>text_0146</t>
+  </si>
+  <si>
+    <t>text_0147</t>
+  </si>
+  <si>
+    <r>
+      <t>搜索：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@userName</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0149</t>
+  </si>
+  <si>
+    <t>没有找到该用户</t>
+  </si>
+  <si>
+    <t>text_0150</t>
+  </si>
+  <si>
+    <t>分享名片</t>
+  </si>
+  <si>
+    <t>text_0151</t>
+  </si>
+  <si>
+    <t>删除好友</t>
+  </si>
+  <si>
+    <t>text_0152</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>text_0153</t>
+  </si>
+  <si>
+    <t>语音通话</t>
+  </si>
+  <si>
+    <t>text_0154</t>
+  </si>
+  <si>
+    <t>语音</t>
+  </si>
+  <si>
+    <t>text_0155</t>
+  </si>
+  <si>
+    <t>新建对话</t>
+  </si>
+  <si>
+    <t>text_0156</t>
+  </si>
+  <si>
+    <t>新建频道</t>
+  </si>
+  <si>
+    <t>text_0157</t>
+  </si>
+  <si>
+    <t>选择好友</t>
+  </si>
+  <si>
+    <t>text_0158</t>
+  </si>
+  <si>
+    <t>设置群聊名称</t>
+  </si>
+  <si>
+    <t>text_0159</t>
+  </si>
+  <si>
+    <r>
+      <t>群成员：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@number</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0160</t>
+  </si>
+  <si>
+    <t>你创建了群聊</t>
+  </si>
+  <si>
+    <t>text_0161</t>
+  </si>
+  <si>
+    <t>群聊详情</t>
+  </si>
+  <si>
+    <t>text_0162</t>
+  </si>
+  <si>
+    <t>添加成员</t>
+  </si>
+  <si>
+    <t>text_0163</t>
+  </si>
+  <si>
+    <r>
+      <t>通话时长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@time</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0164</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>text_0165</t>
+  </si>
+  <si>
+    <t>推荐给我的朋友</t>
+  </si>
+  <si>
+    <t>text_0166</t>
+  </si>
+  <si>
+    <t>分享二维码</t>
+  </si>
+  <si>
+    <t>text_0167</t>
+  </si>
+  <si>
+    <t>我的钱包</t>
+  </si>
+  <si>
+    <t>text_0168</t>
+  </si>
+  <si>
+    <t>我的收藏</t>
+  </si>
+  <si>
+    <t>text_0169</t>
+  </si>
+  <si>
+    <t>我的团队</t>
+  </si>
+  <si>
+    <t>text_0170</t>
+  </si>
+  <si>
+    <t>我的资料</t>
+  </si>
+  <si>
+    <t>text_0171</t>
+  </si>
+  <si>
+    <t>实名认证</t>
+  </si>
+  <si>
+    <t>text_0172</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>text_0173</t>
+  </si>
+  <si>
+    <t>在线客服</t>
+  </si>
+  <si>
+    <t>text_0174</t>
+  </si>
+  <si>
+    <t>我的设置</t>
   </si>
 </sst>
 </file>
@@ -3244,12 +3543,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomLeft" activeCell="D168" sqref="A1:E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="4"/>
@@ -4648,6 +4947,366 @@
         <v>202</v>
       </c>
     </row>
+    <row r="130" customHeight="1" spans="2:3">
+      <c r="B130" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="2:3">
+      <c r="B131" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="2:3">
+      <c r="B132" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="2:3">
+      <c r="B133" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="2:3">
+      <c r="B134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="2:3">
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="2:3">
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="2:3">
+      <c r="B137" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="2:3">
+      <c r="B138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="2:3">
+      <c r="B139" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="2:3">
+      <c r="B140" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="2:3">
+      <c r="B141" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="2:3">
+      <c r="B142" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="2:3">
+      <c r="B143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="2:3">
+      <c r="B144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="2:3">
+      <c r="B145" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="2:3">
+      <c r="B146" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="2:3">
+      <c r="B147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="2:3">
+      <c r="B148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="2:3">
+      <c r="B149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="2:3">
+      <c r="B150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="2:3">
+      <c r="B151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="2:3">
+      <c r="B152" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="2:3">
+      <c r="B153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="2:3">
+      <c r="B154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="2:3">
+      <c r="B155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="2:3">
+      <c r="B156" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="2:3">
+      <c r="B157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="2:3">
+      <c r="B158" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="2:3">
+      <c r="B159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="2:3">
+      <c r="B160" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="2:3">
+      <c r="B161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="2:3">
+      <c r="B162" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="2:3">
+      <c r="B163" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="2:3">
+      <c r="B164" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="2:3">
+      <c r="B165" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="2:3">
+      <c r="B166" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="2:3">
+      <c r="B167" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="2:3">
+      <c r="B168" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="2:3">
+      <c r="B169" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="2:3">
+      <c r="B170" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="2:3">
+      <c r="B171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="2:3">
+      <c r="B172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="2:3">
+      <c r="B173" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="2:3">
+      <c r="B174" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/assets/locales/translations.xlsx
+++ b/assets/locales/translations.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
   <si>
     <t>版本号</t>
   </si>
@@ -1137,6 +1137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.</t>
     </r>
     <r>
@@ -1235,6 +1241,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>复制</t>
     </r>
     <r>
@@ -1336,6 +1348,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
       <t>@number</t>
     </r>
     <r>
@@ -1368,6 +1386,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>搜索：</t>
     </r>
     <r>
@@ -1445,6 +1469,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>群成员：</t>
     </r>
     <r>
@@ -1480,6 +1510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>通话时长</t>
     </r>
     <r>
@@ -1557,6 +1593,24 @@
   </si>
   <si>
     <t>我的设置</t>
+  </si>
+  <si>
+    <t>text_0175</t>
+  </si>
+  <si>
+    <t>已签到</t>
+  </si>
+  <si>
+    <t>text_0176</t>
+  </si>
+  <si>
+    <t>@number个群聊</t>
+  </si>
+  <si>
+    <t>text_0177</t>
+  </si>
+  <si>
+    <t>无法识别的的结果</t>
   </si>
 </sst>
 </file>
@@ -3543,12 +3597,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D168" sqref="A1:E174"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="4"/>
@@ -5307,6 +5361,30 @@
         <v>345</v>
       </c>
     </row>
+    <row r="175" ht="22" customHeight="1" spans="2:3">
+      <c r="B175" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" ht="15" customHeight="1" spans="2:3">
+      <c r="B176" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" ht="24" customHeight="1" spans="2:3">
+      <c r="B177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/assets/locales/translations.xlsx
+++ b/assets/locales/translations.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="373">
   <si>
     <t>版本号</t>
   </si>
@@ -57,7 +57,7 @@
     <t>ParentName</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>text_0178</t>
   </si>
   <si>
     <t>zh-cn</t>
@@ -1278,9 +1278,6 @@
     <t>搜索</t>
   </si>
   <si>
-    <t>text_0128</t>
-  </si>
-  <si>
     <t>text_0130</t>
   </si>
   <si>
@@ -1469,13 +1466,48 @@
   </si>
   <si>
     <r>
+      <t>群成员：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@number</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0160</t>
+  </si>
+  <si>
+    <t>你创建了群聊</t>
+  </si>
+  <si>
+    <t>text_0161</t>
+  </si>
+  <si>
+    <t>群聊详情</t>
+  </si>
+  <si>
+    <t>text_0162</t>
+  </si>
+  <si>
+    <t>添加成员</t>
+  </si>
+  <si>
+    <t>text_0163</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>群成员：</t>
+      <t>通话时长</t>
     </r>
     <r>
       <rPr>
@@ -1484,39 +1516,153 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>@number</t>
-    </r>
-  </si>
-  <si>
-    <t>text_0160</t>
-  </si>
-  <si>
-    <t>你创建了群聊</t>
-  </si>
-  <si>
-    <t>text_0161</t>
-  </si>
-  <si>
-    <t>群聊详情</t>
-  </si>
-  <si>
-    <t>text_0162</t>
-  </si>
-  <si>
-    <t>添加成员</t>
-  </si>
-  <si>
-    <t>text_0163</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通话时长</t>
+      <t>@time</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0164</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>text_0165</t>
+  </si>
+  <si>
+    <t>推荐给我的朋友</t>
+  </si>
+  <si>
+    <t>text_0166</t>
+  </si>
+  <si>
+    <t>分享二维码</t>
+  </si>
+  <si>
+    <t>text_0167</t>
+  </si>
+  <si>
+    <t>我的钱包</t>
+  </si>
+  <si>
+    <t>text_0168</t>
+  </si>
+  <si>
+    <t>我的收藏</t>
+  </si>
+  <si>
+    <t>text_0169</t>
+  </si>
+  <si>
+    <t>我的团队</t>
+  </si>
+  <si>
+    <t>text_0170</t>
+  </si>
+  <si>
+    <t>我的资料</t>
+  </si>
+  <si>
+    <t>text_0171</t>
+  </si>
+  <si>
+    <t>实名认证</t>
+  </si>
+  <si>
+    <t>text_0172</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>text_0173</t>
+  </si>
+  <si>
+    <t>在线客服</t>
+  </si>
+  <si>
+    <t>text_0174</t>
+  </si>
+  <si>
+    <t>我的设置</t>
+  </si>
+  <si>
+    <t>text_0175</t>
+  </si>
+  <si>
+    <t>已签到</t>
+  </si>
+  <si>
+    <t>text_0176</t>
+  </si>
+  <si>
+    <t>@number个群聊</t>
+  </si>
+  <si>
+    <t>text_0177</t>
+  </si>
+  <si>
+    <t>无法识别的的结果</t>
+  </si>
+  <si>
+    <t>没有搜索结果</t>
+  </si>
+  <si>
+    <t>text_0179</t>
+  </si>
+  <si>
+    <t>没有选择好友</t>
+  </si>
+  <si>
+    <t>text_0180</t>
+  </si>
+  <si>
+    <t>上一步</t>
+  </si>
+  <si>
+    <t>text_0181</t>
+  </si>
+  <si>
+    <t>新建群聊</t>
+  </si>
+  <si>
+    <t>text_0182</t>
+  </si>
+  <si>
+    <t>text_0183</t>
+  </si>
+  <si>
+    <t>加我好友是需要验证</t>
+  </si>
+  <si>
+    <t>text_0184</t>
+  </si>
+  <si>
+    <t>允许别人搜索到我</t>
+  </si>
+  <si>
+    <t>text_0185</t>
+  </si>
+  <si>
+    <t>消息提醒</t>
+  </si>
+  <si>
+    <t>text_0186</t>
+  </si>
+  <si>
+    <t>通讯录黑名单</t>
+  </si>
+  <si>
+    <t>text_0187</t>
+  </si>
+  <si>
+    <t>清理所有缓存</t>
+  </si>
+  <si>
+    <t>text_0188</t>
+  </si>
+  <si>
+    <r>
+      <t>环球</t>
     </r>
     <r>
       <rPr>
@@ -1525,92 +1671,14 @@
         <rFont val="Helvetica Neue"/>
         <charset val="134"/>
       </rPr>
-      <t>@time</t>
-    </r>
-  </si>
-  <si>
-    <t>text_0164</t>
-  </si>
-  <si>
-    <t>签到</t>
-  </si>
-  <si>
-    <t>text_0165</t>
-  </si>
-  <si>
-    <t>推荐给我的朋友</t>
-  </si>
-  <si>
-    <t>text_0166</t>
-  </si>
-  <si>
-    <t>分享二维码</t>
-  </si>
-  <si>
-    <t>text_0167</t>
-  </si>
-  <si>
-    <t>我的钱包</t>
-  </si>
-  <si>
-    <t>text_0168</t>
-  </si>
-  <si>
-    <t>我的收藏</t>
-  </si>
-  <si>
-    <t>text_0169</t>
-  </si>
-  <si>
-    <t>我的团队</t>
-  </si>
-  <si>
-    <t>text_0170</t>
-  </si>
-  <si>
-    <t>我的资料</t>
-  </si>
-  <si>
-    <t>text_0171</t>
-  </si>
-  <si>
-    <t>实名认证</t>
-  </si>
-  <si>
-    <t>text_0172</t>
-  </si>
-  <si>
-    <t>安全管理</t>
-  </si>
-  <si>
-    <t>text_0173</t>
-  </si>
-  <si>
-    <t>在线客服</t>
-  </si>
-  <si>
-    <t>text_0174</t>
-  </si>
-  <si>
-    <t>我的设置</t>
-  </si>
-  <si>
-    <t>text_0175</t>
-  </si>
-  <si>
-    <t>已签到</t>
-  </si>
-  <si>
-    <t>text_0176</t>
-  </si>
-  <si>
-    <t>@number个群聊</t>
-  </si>
-  <si>
-    <t>text_0177</t>
-  </si>
-  <si>
-    <t>无法识别的的结果</t>
+      <t>IM</t>
+    </r>
+  </si>
+  <si>
+    <t>text_0189</t>
+  </si>
+  <si>
+    <t>退出登录</t>
   </si>
 </sst>
 </file>
@@ -3597,12 +3665,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
+      <selection pane="bottomLeft" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="12.75" customHeight="1" outlineLevelCol="4"/>
@@ -5014,7 +5082,7 @@
         <v>263</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="2:3">
@@ -5022,39 +5090,39 @@
         <v>264</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="2:3">
       <c r="B133" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="2:3">
       <c r="B134" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="2:3">
       <c r="B135" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C135" s="9" t="s">
         <v>270</v>
+      </c>
+      <c r="C135" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="2:3">
       <c r="B136" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C136" t="s">
         <v>272</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="2:3">
@@ -5062,79 +5130,79 @@
         <v>273</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="2:3">
       <c r="B138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>272</v>
+      <c r="C138" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="2:3">
       <c r="B139" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C139" t="s">
         <v>276</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="2:3">
       <c r="B140" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="2:3">
       <c r="B141" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="2:3">
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="2:3">
       <c r="B143" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C143" s="9" t="s">
         <v>284</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="2:3">
       <c r="B144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="16" t="s">
         <v>286</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="2:3">
       <c r="B145" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="2:3">
       <c r="B146" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="2:3">
@@ -5142,247 +5210,335 @@
         <v>291</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>33</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="2:3">
       <c r="B148" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="2:3">
       <c r="B149" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="2:3">
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="2:3">
       <c r="B151" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="2:3">
       <c r="B152" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="2:3">
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="2:3">
       <c r="B154" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="2:3">
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="2:3">
       <c r="B156" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="2:3">
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="2:3">
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="2:3">
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="2:3">
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="2:3">
       <c r="B161" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" customHeight="1" spans="2:3">
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="2:3">
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="2:3">
       <c r="B164" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="2:3">
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="2:3">
       <c r="B166" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="2:3">
       <c r="B167" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="2:3">
       <c r="B168" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="2:3">
       <c r="B169" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="2:3">
       <c r="B170" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="2:3">
       <c r="B171" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="2:3">
       <c r="B172" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="2:3">
       <c r="B173" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="174" customHeight="1" spans="2:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" ht="22" customHeight="1" spans="2:3">
       <c r="B174" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="175" ht="22" customHeight="1" spans="2:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" ht="15" customHeight="1" spans="2:3">
       <c r="B175" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C175" s="9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="176" ht="15" customHeight="1" spans="2:3">
+      <c r="C175" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" ht="24" customHeight="1" spans="2:3">
       <c r="B176" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C176" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="177" ht="24" customHeight="1" spans="2:3">
+      <c r="C176" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="2:3">
       <c r="B177" s="2" t="s">
-        <v>350</v>
+        <v>8</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="2:3">
+      <c r="B178" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="2:3">
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="2:3">
+      <c r="B180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="2:3">
+      <c r="B181" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="2:3">
+      <c r="B182" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="2:3">
+      <c r="B183" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="2:3">
+      <c r="B184" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="2:3">
+      <c r="B185" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="2:3">
+      <c r="B186" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="2:3">
+      <c r="B187" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="2:3">
+      <c r="B188" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
